--- a/biology/Botanique/Ruschia/Ruschia.xlsx
+++ b/biology/Botanique/Ruschia/Ruschia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruschia est un genre de plante de la famille des Aizoaceae.
 </t>
@@ -511,20 +523,92 @@
           <t>Dénominations et systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruschia a été décrit scientifiquement par Schwantes, in Zeitschrift fur Sukkulentenkunde 2: 186, en 1926.
 L'espèce type de ce genre est Ruschia rupicola (Engler) Schwantes (Mesembryanthemum rupicolum Engler)
-Liste des sous-genres
-Ruschia subgen. Cymbifolia Dehn
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ruschia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ruschia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ruschia subgen. Cymbifolia Dehn
 Ruschia subgen. Maxima Dehn
 Ruschia subgen. Multiflora Dehn
 Ruschia subgen. Sarmentosa (Haw.) Dehn
 Ruschia subgen. Spinosa (Haw.) Dehn
 Ruschia subgen. Stricta Dehn
 Ruschia subgen. Tumidula (Haw.) Dehn
-Ruschia subgen. Vaginata (Haw.) Dehn
-Liste des espèces
+Ruschia subgen. Vaginata (Haw.) Dehn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ruschia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ruschia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ruschia abbreviata L.Bolus
 Ruschia abrupta (Bgr.) G.D.Rowley
 Ruschia acocksii L.Bolus
